--- a/PAP.xlsx
+++ b/PAP.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\informatik\java\Uebung4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\geo\2s_ss18\informatik\projects\Uebung4\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DCF002-E507-4C14-85A7-0DDDFEFC570C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -158,7 +159,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -319,7 +320,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Gerade Verbindung mit Pfeil 2"/>
+        <xdr:cNvPr id="3" name="Gerade Verbindung mit Pfeil 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -616,30 +623,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="89" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="2"/>
-    <col min="4" max="4" width="28.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="2"/>
-    <col min="6" max="7" width="19.85546875" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="27.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="2"/>
+    <col min="4" max="4" width="28.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="2"/>
+    <col min="6" max="7" width="19.88671875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>26</v>
       </c>
@@ -654,7 +661,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -668,7 +675,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -679,7 +686,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -693,7 +700,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -707,7 +714,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -721,108 +728,108 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F8" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>24</v>
       </c>
     </row>
